--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb3/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb3/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3407C20C-B640-42B5-8564-EF04A5D1FB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9783708-B259-4313-B0B4-BD9B0D92C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1968" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -987,6 +990,24 @@
         <v>30</v>
       </c>
       <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1197,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
